--- a/IslandEnergy.xlsx
+++ b/IslandEnergy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Project Name</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t xml:space="preserve">Management and Oversight </t>
+  </si>
+  <si>
+    <t>Payment Schedule Category</t>
+  </si>
+  <si>
+    <t>Payment Name</t>
+  </si>
+  <si>
+    <t>Financial Close</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="31" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -540,16 +549,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="31" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +567,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,6 +575,599 @@
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>17</v>
+      </c>
+      <c r="U5">
+        <v>18</v>
+      </c>
+      <c r="V5">
+        <v>19</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="X5">
+        <v>21</v>
+      </c>
+      <c r="Y5">
+        <v>22</v>
+      </c>
+      <c r="Z5">
+        <v>23</v>
+      </c>
+      <c r="AA5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="B7">
+        <f>'Construction Period Cost Inputs'!A13</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="B8">
+        <f>'Construction Period Cost Inputs'!A14</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="B9">
+        <f>'Construction Period Cost Inputs'!A15</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="B10">
+        <f>'Construction Period Cost Inputs'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>'Construction Period Cost Inputs'!B16/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="B11">
+        <f>'Construction Period Cost Inputs'!A17</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IslandEnergy.xlsx
+++ b/IslandEnergy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Project Name</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Financial Close</t>
+  </si>
+  <si>
+    <t>Monthly Payments</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,602 +580,403 @@
       <c r="C2" s="1"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>7</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>8</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>9</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>10</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>11</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>12</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>13</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>14</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>15</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>16</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>17</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>18</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>19</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>20</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>21</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>22</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>23</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <f>'Construction Period Cost Inputs'!A13</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="1:27">
+      <c r="A7" s="1"/>
       <c r="B7">
-        <f>'Construction Period Cost Inputs'!A13</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!A14</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="W7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="Y7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <f>'Construction Period Cost Inputs'!B13/24</f>
+        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>'Construction Period Cost Inputs'!B14/24</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="B8">
-        <f>'Construction Period Cost Inputs'!A14</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!A15</f>
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="W8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <f>'Construction Period Cost Inputs'!B14/24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="B9">
-        <f>'Construction Period Cost Inputs'!A15</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <f>'Construction Period Cost Inputs'!B15/24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="B10">
-        <f>'Construction Period Cost Inputs'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <f>'Construction Period Cost Inputs'!B16/24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="B11">
-        <f>'Construction Period Cost Inputs'!A17</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <f>'Construction Period Cost Inputs'!B17/24</f>
+        <f>'Construction Period Cost Inputs'!B15/24</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>'Construction Period Cost Inputs'!B15/24</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IslandEnergy.xlsx
+++ b/IslandEnergy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Project Name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Monthly Payments</t>
+  </si>
+  <si>
+    <t>Payments at Financial Close</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,6 +874,7 @@
       </c>
     </row>
     <row r="8" spans="1:27">
+      <c r="A8" s="1"/>
       <c r="B8">
         <f>'Construction Period Cost Inputs'!A15</f>
         <v>0</v>
@@ -972,11 +976,529 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <f>'Construction Period Cost Inputs'!B5</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3">
+        <f>'Construction Period Cost Inputs'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3">
+        <f>'Construction Period Cost Inputs'!B7</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3">
+        <f>'Construction Period Cost Inputs'!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3">
+        <f>'Construction Period Cost Inputs'!B9</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IslandEnergy.xlsx
+++ b/IslandEnergy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Project Name</t>
   </si>
@@ -65,6 +65,15 @@
     <t xml:space="preserve">Management and Oversight </t>
   </si>
   <si>
+    <t>EPC Payment Schedule</t>
+  </si>
+  <si>
+    <t>EPC Contract Month</t>
+  </si>
+  <si>
+    <t>Max. Payment, as percentage of total EPC price</t>
+  </si>
+  <si>
     <t>Payment Schedule Category</t>
   </si>
   <si>
@@ -78,6 +87,9 @@
   </si>
   <si>
     <t>Payments at Financial Close</t>
+  </si>
+  <si>
+    <t>EPC payments</t>
   </si>
 </sst>
 </file>
@@ -132,11 +144,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="31" width="20.7109375" customWidth="1"/>
+    <col min="1" max="26" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -542,12 +559,219 @@
         <v>8150000</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -555,13 +779,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="31" width="20.7109375" customWidth="1"/>
+    <col min="1" max="26" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -584,13 +808,13 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -667,10 +891,14 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
         <f>'Construction Period Cost Inputs'!A13</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
@@ -772,8 +1000,12 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1"/>
-      <c r="B7">
+      <c r="B7" s="4">
         <f>'Construction Period Cost Inputs'!A14</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
@@ -875,8 +1107,12 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1"/>
-      <c r="B8">
+      <c r="B8" s="4">
         <f>'Construction Period Cost Inputs'!A15</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D8" s="3">
@@ -978,9 +1214,13 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'Construction Period Cost Inputs'!A5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
         <f>'Construction Period Cost Inputs'!B5</f>
         <v>0</v>
       </c>
@@ -1083,7 +1323,11 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1"/>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
+        <f>'Construction Period Cost Inputs'!A6</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <f>'Construction Period Cost Inputs'!B6</f>
         <v>0</v>
       </c>
@@ -1186,7 +1430,11 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
+        <f>'Construction Period Cost Inputs'!A7</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
         <f>'Construction Period Cost Inputs'!B7</f>
         <v>0</v>
       </c>
@@ -1289,7 +1537,11 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
+        <f>'Construction Period Cost Inputs'!A8</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
         <f>'Construction Period Cost Inputs'!B8</f>
         <v>0</v>
       </c>
@@ -1392,7 +1644,11 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
+        <f>'Construction Period Cost Inputs'!A9</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <f>'Construction Period Cost Inputs'!B9</f>
         <v>0</v>
       </c>
@@ -1490,6 +1746,115 @@
       </c>
       <c r="AA13" s="3">
         <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <f>'Construction Period Cost Inputs'!A12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B19</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B21</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B23</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B24</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B25</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B26</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B27</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B28</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B29</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B31</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B32</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B33</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B34</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B35</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B36</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B37</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B38</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B40</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B41</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>'Construction Period Cost Inputs'!B12 * 'Construction Period Cost Inputs'!B42</f>
         <v>0</v>
       </c>
     </row>
